--- a/facility_info/specialty_availability_matrix.xlsx
+++ b/facility_info/specialty_availability_matrix.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dannyfisher/Desktop/Code/PatientDB/facility_info/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16BE09A-0C5B-0E4E-B88D-A61DEB835B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -172,8 +178,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,15 +240,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +315,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -314,6 +349,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -348,9 +384,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,14 +560,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -586,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -642,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -698,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -754,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -810,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -866,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -922,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -978,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1258,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1370,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1594,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1650,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1706,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1762,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1818,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1874,7 +1917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1986,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -2098,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2154,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2210,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -2266,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -2322,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2378,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2434,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2491,6 +2534,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R35">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>